--- a/Code/Results/Cases/Case_2_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.59431274723206</v>
+        <v>11.67584708394852</v>
       </c>
       <c r="C2">
-        <v>13.92111108447221</v>
+        <v>8.691826167969872</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.72747209397248</v>
+        <v>25.69665789997646</v>
       </c>
       <c r="F2">
-        <v>34.45938941989468</v>
+        <v>37.87022561806203</v>
       </c>
       <c r="G2">
-        <v>16.66194736537157</v>
+        <v>18.43273599044</v>
       </c>
       <c r="H2">
-        <v>6.787691512446949</v>
+        <v>11.59114964640461</v>
       </c>
       <c r="I2">
-        <v>8.812578263079624</v>
+        <v>15.76462976287502</v>
       </c>
       <c r="J2">
-        <v>3.969920287114448</v>
+        <v>7.20562058375808</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.74899647992084</v>
+        <v>15.62113110960501</v>
       </c>
       <c r="O2">
-        <v>10.63809509706429</v>
+        <v>16.26201429166088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.3591067420839</v>
+        <v>11.05862818438093</v>
       </c>
       <c r="C3">
-        <v>13.11782211733739</v>
+        <v>8.274085650095671</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.36028187908624</v>
+        <v>25.43582716291737</v>
       </c>
       <c r="F3">
-        <v>32.7356760037683</v>
+        <v>37.62526164352224</v>
       </c>
       <c r="G3">
-        <v>15.94505402471633</v>
+        <v>18.39976966432056</v>
       </c>
       <c r="H3">
-        <v>6.815260362875152</v>
+        <v>11.63436161410086</v>
       </c>
       <c r="I3">
-        <v>9.051774439479161</v>
+        <v>15.87041583954898</v>
       </c>
       <c r="J3">
-        <v>4.010942131591015</v>
+        <v>7.226373427101731</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.71772020022048</v>
+        <v>15.63009504965982</v>
       </c>
       <c r="O3">
-        <v>10.52363873394716</v>
+        <v>16.31917394490299</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.55626093051222</v>
+        <v>10.66137984034244</v>
       </c>
       <c r="C4">
-        <v>12.59826292350621</v>
+        <v>8.005132440391442</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.49560995524292</v>
+        <v>25.28038776866602</v>
       </c>
       <c r="F4">
-        <v>31.66149821748298</v>
+        <v>37.48526532848666</v>
       </c>
       <c r="G4">
-        <v>15.51698575933693</v>
+        <v>18.38870407784368</v>
       </c>
       <c r="H4">
-        <v>6.838182836013774</v>
+        <v>11.66310710580771</v>
       </c>
       <c r="I4">
-        <v>9.207927729283812</v>
+        <v>15.93912663380821</v>
       </c>
       <c r="J4">
-        <v>4.037736772090978</v>
+        <v>7.239917429199235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.70186137235159</v>
+        <v>15.63725270982864</v>
       </c>
       <c r="O4">
-        <v>10.46650012513063</v>
+        <v>16.35888258343732</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.21793252364456</v>
+        <v>10.49505142632584</v>
       </c>
       <c r="C5">
-        <v>12.37998946156601</v>
+        <v>7.892486368674409</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.13725727538288</v>
+        <v>25.21829406996816</v>
       </c>
       <c r="F5">
-        <v>31.22035272128271</v>
+        <v>37.43088411252668</v>
       </c>
       <c r="G5">
-        <v>15.34585860059229</v>
+        <v>18.38649968433593</v>
       </c>
       <c r="H5">
-        <v>6.848964785816883</v>
+        <v>11.67537696093435</v>
       </c>
       <c r="I5">
-        <v>9.27377898217739</v>
+        <v>15.96807179103775</v>
       </c>
       <c r="J5">
-        <v>4.04905272705459</v>
+        <v>7.24563865659809</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.69622835621296</v>
+        <v>15.6405866090926</v>
       </c>
       <c r="O5">
-        <v>10.44641446041737</v>
+        <v>16.37621914577282</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.16107973132154</v>
+        <v>10.46716906556263</v>
       </c>
       <c r="C6">
-        <v>12.3433523831675</v>
+        <v>7.873600494666776</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.07740292698071</v>
+        <v>25.20806073001049</v>
       </c>
       <c r="F6">
-        <v>31.14691333948266</v>
+        <v>37.42201668549973</v>
       </c>
       <c r="G6">
-        <v>15.31765119655476</v>
+        <v>18.38627271497262</v>
       </c>
       <c r="H6">
-        <v>6.85084022487198</v>
+        <v>11.67744791199932</v>
       </c>
       <c r="I6">
-        <v>9.28484431299864</v>
+        <v>15.97293518761436</v>
       </c>
       <c r="J6">
-        <v>4.050955507864411</v>
+        <v>7.246600868867765</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.69534276332159</v>
+        <v>15.64116542738424</v>
       </c>
       <c r="O6">
-        <v>10.4432691652748</v>
+        <v>16.37916748046648</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.55174328856426</v>
+        <v>10.65915446381834</v>
       </c>
       <c r="C7">
-        <v>12.59534561369131</v>
+        <v>8.003625460244916</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.4908008283094</v>
+        <v>25.2795452107243</v>
       </c>
       <c r="F7">
-        <v>31.65556176110359</v>
+        <v>37.48452105764282</v>
       </c>
       <c r="G7">
-        <v>15.51466409968933</v>
+        <v>18.38866502205487</v>
       </c>
       <c r="H7">
-        <v>6.838322498145624</v>
+        <v>11.66327033173138</v>
       </c>
       <c r="I7">
-        <v>9.208806988015535</v>
+        <v>15.93951317215814</v>
       </c>
       <c r="J7">
-        <v>4.037887784916873</v>
+        <v>7.239993769570926</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.7017820598832</v>
+        <v>15.6372959815585</v>
       </c>
       <c r="O7">
-        <v>10.46621643791232</v>
+        <v>16.35911172052739</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.17763458835727</v>
+        <v>11.46690333427005</v>
       </c>
       <c r="C8">
-        <v>13.64964066797505</v>
+        <v>8.550422930155216</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.26148201321326</v>
+        <v>25.60578489406827</v>
       </c>
       <c r="F8">
-        <v>33.86864488866954</v>
+        <v>37.78363246193616</v>
       </c>
       <c r="G8">
-        <v>16.41240897625259</v>
+        <v>18.41946442236219</v>
       </c>
       <c r="H8">
-        <v>6.795912427222553</v>
+        <v>11.60558937918054</v>
       </c>
       <c r="I8">
-        <v>8.893050298782986</v>
+        <v>15.80032490355662</v>
       </c>
       <c r="J8">
-        <v>3.983726548249305</v>
+        <v>7.212609987149356</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.73751127027478</v>
+        <v>15.62387939422112</v>
       </c>
       <c r="O8">
-        <v>10.59584422959018</v>
+        <v>16.2807627823564</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.01386897772992</v>
+        <v>12.90068338000443</v>
       </c>
       <c r="C9">
-        <v>15.50595606525103</v>
+        <v>9.520711403837282</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.52236934320003</v>
+        <v>26.27998597412625</v>
       </c>
       <c r="F9">
-        <v>38.06307909628716</v>
+        <v>38.4503764128124</v>
       </c>
       <c r="G9">
-        <v>18.25777375965703</v>
+        <v>18.55259621490075</v>
       </c>
       <c r="H9">
-        <v>6.763365000170911</v>
+        <v>11.51006824991942</v>
       </c>
       <c r="I9">
-        <v>8.35369144997915</v>
+        <v>15.55719111875405</v>
       </c>
       <c r="J9">
-        <v>3.890625492410941</v>
+        <v>7.165255581217536</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.83463356200484</v>
+        <v>15.61063625083421</v>
       </c>
       <c r="O9">
-        <v>10.95835762912812</v>
+        <v>16.16392638422517</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.88431014625963</v>
+        <v>13.85702428042298</v>
       </c>
       <c r="C10">
-        <v>16.73935996649882</v>
+        <v>10.16807736594849</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.77898444317712</v>
+        <v>26.79225786204916</v>
       </c>
       <c r="F10">
-        <v>41.03606155157322</v>
+        <v>38.98555688868989</v>
       </c>
       <c r="G10">
-        <v>19.65202851096464</v>
+        <v>18.69439191939657</v>
       </c>
       <c r="H10">
-        <v>6.774568343223572</v>
+        <v>11.45065447836888</v>
       </c>
       <c r="I10">
-        <v>8.016155636453218</v>
+        <v>15.3967341497446</v>
       </c>
       <c r="J10">
-        <v>3.830768483213483</v>
+        <v>7.134310545894484</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.9231958739447</v>
+        <v>15.60879738222842</v>
       </c>
       <c r="O10">
-        <v>11.29540247114073</v>
+        <v>16.10079642436631</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.68936485478703</v>
+        <v>14.27020546489841</v>
       </c>
       <c r="C11">
-        <v>17.27206488196515</v>
+        <v>10.44785306704437</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.77443177766803</v>
+        <v>27.0280937984443</v>
       </c>
       <c r="F11">
-        <v>42.36250506575919</v>
+        <v>39.23802794409785</v>
       </c>
       <c r="G11">
-        <v>20.29246067149635</v>
+        <v>18.76829324772744</v>
       </c>
       <c r="H11">
-        <v>6.788221115736505</v>
+        <v>11.42597222154727</v>
       </c>
       <c r="I11">
-        <v>7.878072251688137</v>
+        <v>15.32768551686563</v>
       </c>
       <c r="J11">
-        <v>3.805533816978771</v>
+        <v>7.121063450595573</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.96737274227569</v>
+        <v>15.60965730724246</v>
       </c>
       <c r="O11">
-        <v>11.46484322123236</v>
+        <v>16.07706149905112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.98767516901775</v>
+        <v>14.42347265252013</v>
       </c>
       <c r="C12">
-        <v>17.46971211673027</v>
+        <v>10.55164910684147</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.14690089483048</v>
+        <v>27.11772649748585</v>
       </c>
       <c r="F12">
-        <v>42.86095955920649</v>
+        <v>39.33485339180417</v>
       </c>
       <c r="G12">
-        <v>20.53572700081814</v>
+        <v>18.79761043949016</v>
       </c>
       <c r="H12">
-        <v>6.794698625498303</v>
+        <v>11.41696372493086</v>
       </c>
       <c r="I12">
-        <v>7.828275992801919</v>
+        <v>15.30210617324477</v>
       </c>
       <c r="J12">
-        <v>3.796278318827151</v>
+        <v>7.116166133513185</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.98467272236255</v>
+        <v>15.61022533133768</v>
       </c>
       <c r="O12">
-        <v>11.53137090931071</v>
+        <v>16.068794231533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.92371912312096</v>
+        <v>14.39060665195794</v>
       </c>
       <c r="C13">
-        <v>17.42732639299281</v>
+        <v>10.52939080430773</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.06688218298488</v>
+        <v>27.09840916684849</v>
       </c>
       <c r="F13">
-        <v>42.75378015682863</v>
+        <v>39.31394727204587</v>
       </c>
       <c r="G13">
-        <v>20.48330377528196</v>
+        <v>18.7912375408475</v>
       </c>
       <c r="H13">
-        <v>6.793244196934135</v>
+        <v>11.41888881314211</v>
       </c>
       <c r="I13">
-        <v>7.838884959857066</v>
+        <v>15.30758987358609</v>
       </c>
       <c r="J13">
-        <v>3.798258068572454</v>
+        <v>7.117215567018715</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.98092127078606</v>
+        <v>15.61009224227809</v>
       </c>
       <c r="O13">
-        <v>11.51693718200509</v>
+        <v>16.07054262374609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.71403796081971</v>
+        <v>14.28287914958275</v>
       </c>
       <c r="C14">
-        <v>17.28840708357092</v>
+        <v>10.45643566377451</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.80516482982791</v>
+        <v>27.03546182037925</v>
       </c>
       <c r="F14">
-        <v>42.40359052599273</v>
+        <v>39.24596982361849</v>
       </c>
       <c r="G14">
-        <v>20.31246000304025</v>
+        <v>18.77067860970602</v>
       </c>
       <c r="H14">
-        <v>6.788727377818724</v>
+        <v>11.42522430530367</v>
       </c>
       <c r="I14">
-        <v>7.873923850355135</v>
+        <v>15.32556970331</v>
       </c>
       <c r="J14">
-        <v>3.804766260185372</v>
+        <v>7.120658160584424</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.96878450723268</v>
+        <v>15.6096991902134</v>
       </c>
       <c r="O14">
-        <v>11.47026887616338</v>
+        <v>16.07636688124035</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.58475101217884</v>
+        <v>14.21647544177542</v>
       </c>
       <c r="C15">
-        <v>17.20278438369679</v>
+        <v>10.41146780923965</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.64427172431897</v>
+        <v>26.99694505401671</v>
       </c>
       <c r="F15">
-        <v>42.18858724869411</v>
+        <v>39.20448826859123</v>
       </c>
       <c r="G15">
-        <v>20.20790723867378</v>
+        <v>18.75825855878567</v>
       </c>
       <c r="H15">
-        <v>6.786133262573503</v>
+        <v>11.4291490387442</v>
       </c>
       <c r="I15">
-        <v>7.895719442906037</v>
+        <v>15.33665684545067</v>
       </c>
       <c r="J15">
-        <v>3.808792251606811</v>
+        <v>7.122782346931102</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.96142512289608</v>
+        <v>15.60948995349052</v>
       </c>
       <c r="O15">
-        <v>11.44199231090024</v>
+        <v>16.08002837015874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.83077941090515</v>
+        <v>13.82957730318165</v>
       </c>
       <c r="C16">
-        <v>16.70397556120512</v>
+        <v>10.14949429788979</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.71330159043805</v>
+        <v>26.77689528711235</v>
       </c>
       <c r="F16">
-        <v>40.94884184686712</v>
+        <v>38.9692322583772</v>
       </c>
       <c r="G16">
-        <v>19.61028627464675</v>
+        <v>18.68974985575192</v>
       </c>
       <c r="H16">
-        <v>6.77385486442504</v>
+        <v>11.45231479178453</v>
       </c>
       <c r="I16">
-        <v>8.025513081123274</v>
+        <v>15.40132606448096</v>
       </c>
       <c r="J16">
-        <v>3.832458886179361</v>
+        <v>7.135192951813504</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.92038809137524</v>
+        <v>15.60877518906271</v>
       </c>
       <c r="O16">
-        <v>11.28465761387048</v>
+        <v>16.10244818573646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.35653511493971</v>
+        <v>13.58658776533429</v>
       </c>
       <c r="C17">
-        <v>16.39070436120728</v>
+        <v>9.984987662103832</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.13419149816179</v>
+        <v>26.64256512176369</v>
       </c>
       <c r="F17">
-        <v>40.18154500914255</v>
+        <v>38.82716584701901</v>
       </c>
       <c r="G17">
-        <v>19.24513625403835</v>
+        <v>18.65011657680043</v>
       </c>
       <c r="H17">
-        <v>6.768568731988337</v>
+        <v>11.46712756129744</v>
       </c>
       <c r="I17">
-        <v>8.109278253037932</v>
+        <v>15.44200918724711</v>
       </c>
       <c r="J17">
-        <v>3.847497626461055</v>
+        <v>7.143018829159531</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.8962178244162</v>
+        <v>15.60877011381109</v>
       </c>
       <c r="O17">
-        <v>11.19230180489848</v>
+        <v>16.11748131320738</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.07944675953927</v>
+        <v>13.44477105366318</v>
       </c>
       <c r="C18">
-        <v>16.20784722424158</v>
+        <v>9.888984322945548</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.79817315789058</v>
+        <v>26.56557014727318</v>
       </c>
       <c r="F18">
-        <v>39.73777201285569</v>
+        <v>38.7463062563566</v>
       </c>
       <c r="G18">
-        <v>19.03569923825182</v>
+        <v>18.62820649438938</v>
       </c>
       <c r="H18">
-        <v>6.766329013952675</v>
+        <v>11.47586817920996</v>
       </c>
       <c r="I18">
-        <v>8.158895023130752</v>
+        <v>15.46578022646154</v>
       </c>
       <c r="J18">
-        <v>3.856334361646342</v>
+        <v>7.147598202392663</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.88268111089408</v>
+        <v>15.60892696803933</v>
       </c>
       <c r="O18">
-        <v>11.14069606812081</v>
+        <v>16.1265967894006</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.98488701458514</v>
+        <v>13.39640306832276</v>
       </c>
       <c r="C19">
-        <v>16.14547608404169</v>
+        <v>9.856242746874489</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.68390117907952</v>
+        <v>26.53954935186754</v>
       </c>
       <c r="F19">
-        <v>39.58710275650768</v>
+        <v>38.7190774138485</v>
       </c>
       <c r="G19">
-        <v>18.96489326521237</v>
+        <v>18.62094079766269</v>
       </c>
       <c r="H19">
-        <v>6.765705863372428</v>
+        <v>11.47886548169066</v>
       </c>
       <c r="I19">
-        <v>8.175933633212198</v>
+        <v>15.47389242239925</v>
       </c>
       <c r="J19">
-        <v>3.859358031453133</v>
+        <v>7.149162127864031</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.87816020571769</v>
+        <v>15.60900756386337</v>
       </c>
       <c r="O19">
-        <v>11.12348187439045</v>
+        <v>16.12976352482032</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.40746558968566</v>
+        <v>13.61266756834409</v>
       </c>
       <c r="C20">
-        <v>16.4243291400709</v>
+        <v>10.00264311907654</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.19614220245139</v>
+        <v>26.65683759251326</v>
       </c>
       <c r="F20">
-        <v>40.2634790274691</v>
+        <v>38.84220129438008</v>
       </c>
       <c r="G20">
-        <v>19.28394741427643</v>
+        <v>18.65424404291228</v>
       </c>
       <c r="H20">
-        <v>6.769048019818499</v>
+        <v>11.46552786820565</v>
       </c>
       <c r="I20">
-        <v>8.100210719578897</v>
+        <v>15.43763997835409</v>
       </c>
       <c r="J20">
-        <v>3.84587729537451</v>
+        <v>7.14217766643896</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.89875288869813</v>
+        <v>15.60875412921331</v>
       </c>
       <c r="O20">
-        <v>11.20197608989486</v>
+        <v>16.11583245980854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.77580370274204</v>
+        <v>14.31460841257469</v>
       </c>
       <c r="C21">
-        <v>17.32932161125321</v>
+        <v>10.47792290964393</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.88215915294838</v>
+        <v>27.05394271839234</v>
       </c>
       <c r="F21">
-        <v>42.50655441084966</v>
+        <v>39.26590395306286</v>
       </c>
       <c r="G21">
-        <v>20.36262157143907</v>
+        <v>18.77668127528668</v>
       </c>
       <c r="H21">
-        <v>6.790017976522343</v>
+        <v>11.423354233733</v>
       </c>
       <c r="I21">
-        <v>7.863562095928708</v>
+        <v>15.32027317325418</v>
       </c>
       <c r="J21">
-        <v>3.802846381107789</v>
+        <v>7.119643758040313</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.97233377327151</v>
+        <v>15.6098080734591</v>
       </c>
       <c r="O21">
-        <v>11.48391199696998</v>
+        <v>16.07463656700416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.63195792841831</v>
+        <v>14.75472453858812</v>
       </c>
       <c r="C22">
-        <v>17.89703339026289</v>
+        <v>10.77600911892787</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.95795318578519</v>
+        <v>27.31534345469975</v>
       </c>
       <c r="F22">
-        <v>43.9501503691403</v>
+        <v>39.54989307646259</v>
       </c>
       <c r="G22">
-        <v>21.09753593042931</v>
+        <v>18.8644558386412</v>
       </c>
       <c r="H22">
-        <v>6.811380007138919</v>
+        <v>11.39776265824441</v>
       </c>
       <c r="I22">
-        <v>7.723580430617661</v>
+        <v>15.24687759750345</v>
       </c>
       <c r="J22">
-        <v>3.776481025127456</v>
+        <v>7.10561045580351</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.02375779919233</v>
+        <v>15.61190895219396</v>
       </c>
       <c r="O22">
-        <v>11.68196965786182</v>
+        <v>16.05191474180564</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.17848605912803</v>
+        <v>14.52154642235479</v>
       </c>
       <c r="C23">
-        <v>17.59620468174728</v>
+        <v>10.6180712664049</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.38616319966692</v>
+        <v>27.1756829113495</v>
       </c>
       <c r="F23">
-        <v>43.18173936685081</v>
+        <v>39.39770115462044</v>
       </c>
       <c r="G23">
-        <v>20.69299601975543</v>
+        <v>18.81690652881561</v>
       </c>
       <c r="H23">
-        <v>6.799252571242553</v>
+        <v>11.41124069805449</v>
       </c>
       <c r="I23">
-        <v>7.796849398618185</v>
+        <v>15.28574702948271</v>
       </c>
       <c r="J23">
-        <v>3.790387026011889</v>
+        <v>7.113036890266447</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.99600278536149</v>
+        <v>15.61065899921874</v>
       </c>
       <c r="O23">
-        <v>11.57498688263036</v>
+        <v>16.06365605566998</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.38445375164824</v>
+        <v>13.60088348492037</v>
       </c>
       <c r="C24">
-        <v>16.40913595381736</v>
+        <v>9.994665527006443</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.16814388170226</v>
+        <v>26.65038427616429</v>
       </c>
       <c r="F24">
-        <v>40.22644488385833</v>
+        <v>38.83540122011128</v>
       </c>
       <c r="G24">
-        <v>19.26639934332228</v>
+        <v>18.6523752865733</v>
       </c>
       <c r="H24">
-        <v>6.768828849834815</v>
+        <v>11.46625039001232</v>
       </c>
       <c r="I24">
-        <v>8.104305626738983</v>
+        <v>15.43961410853449</v>
       </c>
       <c r="J24">
-        <v>3.846609253877881</v>
+        <v>7.142557706355023</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.89760566853359</v>
+        <v>15.60876085804801</v>
       </c>
       <c r="O24">
-        <v>11.19759770559526</v>
+        <v>16.11657643418781</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.2841893726431</v>
+        <v>12.52952813246416</v>
       </c>
       <c r="C25">
-        <v>15.02661132567592</v>
+        <v>9.269525948514623</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.66414850075918</v>
+        <v>26.09432314391372</v>
       </c>
       <c r="F25">
-        <v>36.9463477941929</v>
+        <v>38.26177153149801</v>
       </c>
       <c r="G25">
-        <v>17.75093879345031</v>
+        <v>18.50881565714725</v>
       </c>
       <c r="H25">
-        <v>6.766315359089924</v>
+        <v>11.53402170135608</v>
       </c>
       <c r="I25">
-        <v>8.490108931658128</v>
+        <v>15.61977398548952</v>
       </c>
       <c r="J25">
-        <v>3.914354993558594</v>
+        <v>7.177389201603762</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.80538879555229</v>
+        <v>15.61282750599472</v>
       </c>
       <c r="O25">
-        <v>10.84816308180577</v>
+        <v>16.19156440078801</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.67584708394852</v>
+        <v>19.59431274723201</v>
       </c>
       <c r="C2">
-        <v>8.691826167969872</v>
+        <v>13.92111108447228</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.69665789997646</v>
+        <v>24.72747209397248</v>
       </c>
       <c r="F2">
-        <v>37.87022561806203</v>
+        <v>34.45938941989469</v>
       </c>
       <c r="G2">
-        <v>18.43273599044</v>
+        <v>16.66194736537161</v>
       </c>
       <c r="H2">
-        <v>11.59114964640461</v>
+        <v>6.787691512446953</v>
       </c>
       <c r="I2">
-        <v>15.76462976287502</v>
+        <v>8.812578263079685</v>
       </c>
       <c r="J2">
-        <v>7.20562058375808</v>
+        <v>3.969920287114483</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.62113110960501</v>
+        <v>11.74899647992084</v>
       </c>
       <c r="O2">
-        <v>16.26201429166088</v>
+        <v>10.63809509706433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.05862818438093</v>
+        <v>18.35910674208395</v>
       </c>
       <c r="C3">
-        <v>8.274085650095671</v>
+        <v>13.1178221173375</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.43582716291737</v>
+        <v>23.36028187908629</v>
       </c>
       <c r="F3">
-        <v>37.62526164352224</v>
+        <v>32.73567600376834</v>
       </c>
       <c r="G3">
-        <v>18.39976966432056</v>
+        <v>15.94505402471624</v>
       </c>
       <c r="H3">
-        <v>11.63436161410086</v>
+        <v>6.815260362875312</v>
       </c>
       <c r="I3">
-        <v>15.87041583954898</v>
+        <v>9.051774439479132</v>
       </c>
       <c r="J3">
-        <v>7.226373427101731</v>
+        <v>4.010942131591103</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.63009504965982</v>
+        <v>11.71772020022048</v>
       </c>
       <c r="O3">
-        <v>16.31917394490299</v>
+        <v>10.52363873394711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.66137984034244</v>
+        <v>17.55626093051223</v>
       </c>
       <c r="C4">
-        <v>8.005132440391442</v>
+        <v>12.59826292350624</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.28038776866602</v>
+        <v>22.49560995524296</v>
       </c>
       <c r="F4">
-        <v>37.48526532848666</v>
+        <v>31.66149821748299</v>
       </c>
       <c r="G4">
-        <v>18.38870407784368</v>
+        <v>15.5169857593369</v>
       </c>
       <c r="H4">
-        <v>11.66310710580771</v>
+        <v>6.838182836013725</v>
       </c>
       <c r="I4">
-        <v>15.93912663380821</v>
+        <v>9.207927729283723</v>
       </c>
       <c r="J4">
-        <v>7.239917429199235</v>
+        <v>4.037736772091045</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.63725270982864</v>
+        <v>11.70186137235154</v>
       </c>
       <c r="O4">
-        <v>16.35888258343732</v>
+        <v>10.46650012513057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.49505142632584</v>
+        <v>17.2179325236446</v>
       </c>
       <c r="C5">
-        <v>7.892486368674409</v>
+        <v>12.37998946156592</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.21829406996816</v>
+        <v>22.13725727538286</v>
       </c>
       <c r="F5">
-        <v>37.43088411252668</v>
+        <v>31.22035272128277</v>
       </c>
       <c r="G5">
-        <v>18.38649968433593</v>
+        <v>15.34585860059236</v>
       </c>
       <c r="H5">
-        <v>11.67537696093435</v>
+        <v>6.848964785816896</v>
       </c>
       <c r="I5">
-        <v>15.96807179103775</v>
+        <v>9.273778982177404</v>
       </c>
       <c r="J5">
-        <v>7.24563865659809</v>
+        <v>4.049052727054561</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.6405866090926</v>
+        <v>11.69622835621296</v>
       </c>
       <c r="O5">
-        <v>16.37621914577282</v>
+        <v>10.44641446041741</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.46716906556263</v>
+        <v>17.16107973132151</v>
       </c>
       <c r="C6">
-        <v>7.873600494666776</v>
+        <v>12.34335238316751</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.20806073001049</v>
+        <v>22.07740292698064</v>
       </c>
       <c r="F6">
-        <v>37.42201668549973</v>
+        <v>31.14691333948257</v>
       </c>
       <c r="G6">
-        <v>18.38627271497262</v>
+        <v>15.31765119655472</v>
       </c>
       <c r="H6">
-        <v>11.67744791199932</v>
+        <v>6.850840224871926</v>
       </c>
       <c r="I6">
-        <v>15.97293518761436</v>
+        <v>9.284844312998548</v>
       </c>
       <c r="J6">
-        <v>7.246600868867765</v>
+        <v>4.050955507864348</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.64116542738424</v>
+        <v>11.69534276332153</v>
       </c>
       <c r="O6">
-        <v>16.37916748046648</v>
+        <v>10.44326916527471</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.65915446381834</v>
+        <v>17.55174328856428</v>
       </c>
       <c r="C7">
-        <v>8.003625460244916</v>
+        <v>12.59534561369127</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.2795452107243</v>
+        <v>22.49080082830946</v>
       </c>
       <c r="F7">
-        <v>37.48452105764282</v>
+        <v>31.65556176110366</v>
       </c>
       <c r="G7">
-        <v>18.38866502205487</v>
+        <v>15.51466409968933</v>
       </c>
       <c r="H7">
-        <v>11.66327033173138</v>
+        <v>6.838322498145575</v>
       </c>
       <c r="I7">
-        <v>15.93951317215814</v>
+        <v>9.208806988015503</v>
       </c>
       <c r="J7">
-        <v>7.239993769570926</v>
+        <v>4.037887784916783</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.6372959815585</v>
+        <v>11.7017820598832</v>
       </c>
       <c r="O7">
-        <v>16.35911172052739</v>
+        <v>10.46621643791231</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.46690333427005</v>
+        <v>19.17763458835727</v>
       </c>
       <c r="C8">
-        <v>8.550422930155216</v>
+        <v>13.64964066797488</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.60578489406827</v>
+        <v>24.26148201321326</v>
       </c>
       <c r="F8">
-        <v>37.78363246193616</v>
+        <v>33.86864488866954</v>
       </c>
       <c r="G8">
-        <v>18.41946442236219</v>
+        <v>16.41240897625262</v>
       </c>
       <c r="H8">
-        <v>11.60558937918054</v>
+        <v>6.795912427222498</v>
       </c>
       <c r="I8">
-        <v>15.80032490355662</v>
+        <v>8.893050298782992</v>
       </c>
       <c r="J8">
-        <v>7.212609987149356</v>
+        <v>3.98372654824937</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.62387939422112</v>
+        <v>11.73751127027477</v>
       </c>
       <c r="O8">
-        <v>16.2807627823564</v>
+        <v>10.59584422959022</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.90068338000443</v>
+        <v>22.01386897772989</v>
       </c>
       <c r="C9">
-        <v>9.520711403837282</v>
+        <v>15.50595606525099</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.27998597412625</v>
+        <v>27.52236934319999</v>
       </c>
       <c r="F9">
-        <v>38.4503764128124</v>
+        <v>38.06307909628718</v>
       </c>
       <c r="G9">
-        <v>18.55259621490075</v>
+        <v>18.25777375965714</v>
       </c>
       <c r="H9">
-        <v>11.51006824991942</v>
+        <v>6.763365000170977</v>
       </c>
       <c r="I9">
-        <v>15.55719111875405</v>
+        <v>8.353691449979335</v>
       </c>
       <c r="J9">
-        <v>7.165255581217536</v>
+        <v>3.890625492410971</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.61063625083421</v>
+        <v>11.83463356200498</v>
       </c>
       <c r="O9">
-        <v>16.16392638422517</v>
+        <v>10.95835762912825</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.85702428042298</v>
+        <v>23.88431014625968</v>
       </c>
       <c r="C10">
-        <v>10.16807736594849</v>
+        <v>16.73935996649874</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.79225786204916</v>
+        <v>29.77898444317713</v>
       </c>
       <c r="F10">
-        <v>38.98555688868989</v>
+        <v>41.03606155157324</v>
       </c>
       <c r="G10">
-        <v>18.69439191939657</v>
+        <v>19.65202851096462</v>
       </c>
       <c r="H10">
-        <v>11.45065447836888</v>
+        <v>6.774568343223526</v>
       </c>
       <c r="I10">
-        <v>15.3967341497446</v>
+        <v>8.016155636453039</v>
       </c>
       <c r="J10">
-        <v>7.134310545894484</v>
+        <v>3.830768483213367</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.60879738222842</v>
+        <v>11.92319587394459</v>
       </c>
       <c r="O10">
-        <v>16.10079642436631</v>
+        <v>11.29540247114066</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.27020546489841</v>
+        <v>24.68936485478698</v>
       </c>
       <c r="C11">
-        <v>10.44785306704437</v>
+        <v>17.27206488196506</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.0280937984443</v>
+        <v>30.77443177766803</v>
       </c>
       <c r="F11">
-        <v>39.23802794409785</v>
+        <v>42.36250506575917</v>
       </c>
       <c r="G11">
-        <v>18.76829324772744</v>
+        <v>20.29246067149638</v>
       </c>
       <c r="H11">
-        <v>11.42597222154727</v>
+        <v>6.788221115736541</v>
       </c>
       <c r="I11">
-        <v>15.32768551686563</v>
+        <v>7.87807225168827</v>
       </c>
       <c r="J11">
-        <v>7.121063450595573</v>
+        <v>3.805533816978805</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.60965730724246</v>
+        <v>11.96737274227575</v>
       </c>
       <c r="O11">
-        <v>16.07706149905112</v>
+        <v>11.46484322123242</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.42347265252013</v>
+        <v>24.98767516901771</v>
       </c>
       <c r="C12">
-        <v>10.55164910684147</v>
+        <v>17.4697121167302</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.11772649748585</v>
+        <v>31.14690089483046</v>
       </c>
       <c r="F12">
-        <v>39.33485339180417</v>
+        <v>42.86095955920648</v>
       </c>
       <c r="G12">
-        <v>18.79761043949016</v>
+        <v>20.53572700081815</v>
       </c>
       <c r="H12">
-        <v>11.41696372493086</v>
+        <v>6.794698625498367</v>
       </c>
       <c r="I12">
-        <v>15.30210617324477</v>
+        <v>7.828275992802011</v>
       </c>
       <c r="J12">
-        <v>7.116166133513185</v>
+        <v>3.796278318827123</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.61022533133768</v>
+        <v>11.98467272236254</v>
       </c>
       <c r="O12">
-        <v>16.068794231533</v>
+        <v>11.53137090931076</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.39060665195794</v>
+        <v>24.92371912312098</v>
       </c>
       <c r="C13">
-        <v>10.52939080430773</v>
+        <v>17.42732639299271</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.09840916684849</v>
+        <v>31.06688218298486</v>
       </c>
       <c r="F13">
-        <v>39.31394727204587</v>
+        <v>42.7537801568286</v>
       </c>
       <c r="G13">
-        <v>18.7912375408475</v>
+        <v>20.48330377528197</v>
       </c>
       <c r="H13">
-        <v>11.41888881314211</v>
+        <v>6.793244196934141</v>
       </c>
       <c r="I13">
-        <v>15.30758987358609</v>
+        <v>7.838884959857029</v>
       </c>
       <c r="J13">
-        <v>7.117215567018715</v>
+        <v>3.798258068572458</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.61009224227809</v>
+        <v>11.98092127078602</v>
       </c>
       <c r="O13">
-        <v>16.07054262374609</v>
+        <v>11.5169371820051</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.28287914958275</v>
+        <v>24.71403796081972</v>
       </c>
       <c r="C14">
-        <v>10.45643566377451</v>
+        <v>17.28840708357081</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.03546182037925</v>
+        <v>30.80516482982789</v>
       </c>
       <c r="F14">
-        <v>39.24596982361849</v>
+        <v>42.40359052599271</v>
       </c>
       <c r="G14">
-        <v>18.77067860970602</v>
+        <v>20.31246000304029</v>
       </c>
       <c r="H14">
-        <v>11.42522430530367</v>
+        <v>6.788727377818716</v>
       </c>
       <c r="I14">
-        <v>15.32556970331</v>
+        <v>7.873923850355087</v>
       </c>
       <c r="J14">
-        <v>7.120658160584424</v>
+        <v>3.804766260185318</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.6096991902134</v>
+        <v>11.96878450723264</v>
       </c>
       <c r="O14">
-        <v>16.07636688124035</v>
+        <v>11.47026887616338</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.21647544177542</v>
+        <v>24.58475101217879</v>
       </c>
       <c r="C15">
-        <v>10.41146780923965</v>
+        <v>17.20278438369681</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.99694505401671</v>
+        <v>30.64427172431898</v>
       </c>
       <c r="F15">
-        <v>39.20448826859123</v>
+        <v>42.18858724869411</v>
       </c>
       <c r="G15">
-        <v>18.75825855878567</v>
+        <v>20.20790723867378</v>
       </c>
       <c r="H15">
-        <v>11.4291490387442</v>
+        <v>6.786133262573503</v>
       </c>
       <c r="I15">
-        <v>15.33665684545067</v>
+        <v>7.895719442906127</v>
       </c>
       <c r="J15">
-        <v>7.122782346931102</v>
+        <v>3.808792251606862</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.60948995349052</v>
+        <v>11.96142512289607</v>
       </c>
       <c r="O15">
-        <v>16.08002837015874</v>
+        <v>11.44199231090029</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.82957730318165</v>
+        <v>23.83077941090515</v>
       </c>
       <c r="C16">
-        <v>10.14949429788979</v>
+        <v>16.70397556120504</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.77689528711235</v>
+        <v>29.713301590438</v>
       </c>
       <c r="F16">
-        <v>38.9692322583772</v>
+        <v>40.9488418468671</v>
       </c>
       <c r="G16">
-        <v>18.68974985575192</v>
+        <v>19.6102862746468</v>
       </c>
       <c r="H16">
-        <v>11.45231479178453</v>
+        <v>6.773854864425084</v>
       </c>
       <c r="I16">
-        <v>15.40132606448096</v>
+        <v>8.025513081123316</v>
       </c>
       <c r="J16">
-        <v>7.135192951813504</v>
+        <v>3.832458886179355</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.60877518906271</v>
+        <v>11.92038809137525</v>
       </c>
       <c r="O16">
-        <v>16.10244818573646</v>
+        <v>11.28465761387055</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.58658776533429</v>
+        <v>23.35653511493974</v>
       </c>
       <c r="C17">
-        <v>9.984987662103832</v>
+        <v>16.3907043612072</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>26.64256512176369</v>
+        <v>29.13419149816179</v>
       </c>
       <c r="F17">
-        <v>38.82716584701901</v>
+        <v>40.18154500914257</v>
       </c>
       <c r="G17">
-        <v>18.65011657680043</v>
+        <v>19.2451362540384</v>
       </c>
       <c r="H17">
-        <v>11.46712756129744</v>
+        <v>6.768568731988384</v>
       </c>
       <c r="I17">
-        <v>15.44200918724711</v>
+        <v>8.109278253038008</v>
       </c>
       <c r="J17">
-        <v>7.143018829159531</v>
+        <v>3.847497626461093</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.60877011381109</v>
+        <v>11.89621782441627</v>
       </c>
       <c r="O17">
-        <v>16.11748131320738</v>
+        <v>11.19230180489854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.44477105366318</v>
+        <v>23.07944675953928</v>
       </c>
       <c r="C18">
-        <v>9.888984322945548</v>
+        <v>16.20784722424149</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.56557014727318</v>
+        <v>28.79817315789056</v>
       </c>
       <c r="F18">
-        <v>38.7463062563566</v>
+        <v>39.7377720128557</v>
       </c>
       <c r="G18">
-        <v>18.62820649438938</v>
+        <v>19.03569923825187</v>
       </c>
       <c r="H18">
-        <v>11.47586817920996</v>
+        <v>6.766329013952692</v>
       </c>
       <c r="I18">
-        <v>15.46578022646154</v>
+        <v>8.158895023130777</v>
       </c>
       <c r="J18">
-        <v>7.147598202392663</v>
+        <v>3.856334361646373</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.60892696803933</v>
+        <v>11.88268111089406</v>
       </c>
       <c r="O18">
-        <v>16.1265967894006</v>
+        <v>11.14069606812084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.39640306832276</v>
+        <v>22.98488701458507</v>
       </c>
       <c r="C19">
-        <v>9.856242746874489</v>
+        <v>16.14547608404161</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.53954935186754</v>
+        <v>28.68390117907956</v>
       </c>
       <c r="F19">
-        <v>38.7190774138485</v>
+        <v>39.58710275650774</v>
       </c>
       <c r="G19">
-        <v>18.62094079766269</v>
+        <v>18.96489326521239</v>
       </c>
       <c r="H19">
-        <v>11.47886548169066</v>
+        <v>6.765705863372477</v>
       </c>
       <c r="I19">
-        <v>15.47389242239925</v>
+        <v>8.175933633212285</v>
       </c>
       <c r="J19">
-        <v>7.149162127864031</v>
+        <v>3.859358031453166</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.60900756386337</v>
+        <v>11.87816020571768</v>
       </c>
       <c r="O19">
-        <v>16.12976352482032</v>
+        <v>11.1234818743905</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.61266756834409</v>
+        <v>23.40746558968557</v>
       </c>
       <c r="C20">
-        <v>10.00264311907654</v>
+        <v>16.42432914007096</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.65683759251326</v>
+        <v>29.19614220245133</v>
       </c>
       <c r="F20">
-        <v>38.84220129438008</v>
+        <v>40.26347902746909</v>
       </c>
       <c r="G20">
-        <v>18.65424404291228</v>
+        <v>19.28394741427648</v>
       </c>
       <c r="H20">
-        <v>11.46552786820565</v>
+        <v>6.769048019818505</v>
       </c>
       <c r="I20">
-        <v>15.43763997835409</v>
+        <v>8.100210719578966</v>
       </c>
       <c r="J20">
-        <v>7.14217766643896</v>
+        <v>3.845877295374478</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.60875412921331</v>
+        <v>11.89875288869807</v>
       </c>
       <c r="O20">
-        <v>16.11583245980854</v>
+        <v>11.2019760898949</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.31460841257469</v>
+        <v>24.77580370274204</v>
       </c>
       <c r="C21">
-        <v>10.47792290964393</v>
+        <v>17.3293216112531</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.05394271839234</v>
+        <v>30.88215915294835</v>
       </c>
       <c r="F21">
-        <v>39.26590395306286</v>
+        <v>42.50655441084966</v>
       </c>
       <c r="G21">
-        <v>18.77668127528668</v>
+        <v>20.36262157143907</v>
       </c>
       <c r="H21">
-        <v>11.423354233733</v>
+        <v>6.790017976522292</v>
       </c>
       <c r="I21">
-        <v>15.32027317325418</v>
+        <v>7.863562095928634</v>
       </c>
       <c r="J21">
-        <v>7.119643758040313</v>
+        <v>3.802846381107779</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.6098080734591</v>
+        <v>11.97233377327146</v>
       </c>
       <c r="O21">
-        <v>16.07463656700416</v>
+        <v>11.48391199696998</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.75472453858812</v>
+        <v>25.63195792841829</v>
       </c>
       <c r="C22">
-        <v>10.77600911892787</v>
+        <v>17.89703339026287</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>27.31534345469975</v>
+        <v>31.95795318578518</v>
       </c>
       <c r="F22">
-        <v>39.54989307646259</v>
+        <v>43.95015036914031</v>
       </c>
       <c r="G22">
-        <v>18.8644558386412</v>
+        <v>21.09753593042933</v>
       </c>
       <c r="H22">
-        <v>11.39776265824441</v>
+        <v>6.811380007138896</v>
       </c>
       <c r="I22">
-        <v>15.24687759750345</v>
+        <v>7.723580430617674</v>
       </c>
       <c r="J22">
-        <v>7.10561045580351</v>
+        <v>3.776481025127453</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.61190895219396</v>
+        <v>12.0237577991923</v>
       </c>
       <c r="O22">
-        <v>16.05191474180564</v>
+        <v>11.68196965786182</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.52154642235479</v>
+        <v>25.17848605912806</v>
       </c>
       <c r="C23">
-        <v>10.6180712664049</v>
+        <v>17.59620468174738</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.1756829113495</v>
+        <v>31.3861631996669</v>
       </c>
       <c r="F23">
-        <v>39.39770115462044</v>
+        <v>43.18173936685084</v>
       </c>
       <c r="G23">
-        <v>18.81690652881561</v>
+        <v>20.6929960197555</v>
       </c>
       <c r="H23">
-        <v>11.41124069805449</v>
+        <v>6.799252571242567</v>
       </c>
       <c r="I23">
-        <v>15.28574702948271</v>
+        <v>7.796849398618177</v>
       </c>
       <c r="J23">
-        <v>7.113036890266447</v>
+        <v>3.790387026011859</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.61065899921874</v>
+        <v>11.99600278536148</v>
       </c>
       <c r="O23">
-        <v>16.06365605566998</v>
+        <v>11.57498688263036</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.60088348492037</v>
+        <v>23.38445375164811</v>
       </c>
       <c r="C24">
-        <v>9.994665527006443</v>
+        <v>16.4091359538174</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.65038427616429</v>
+        <v>29.16814388170222</v>
       </c>
       <c r="F24">
-        <v>38.83540122011128</v>
+        <v>40.22644488385833</v>
       </c>
       <c r="G24">
-        <v>18.6523752865733</v>
+        <v>19.26639934332237</v>
       </c>
       <c r="H24">
-        <v>11.46625039001232</v>
+        <v>6.768828849834869</v>
       </c>
       <c r="I24">
-        <v>15.43961410853449</v>
+        <v>8.104305626739251</v>
       </c>
       <c r="J24">
-        <v>7.142557706355023</v>
+        <v>3.846609253877942</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.60876085804801</v>
+        <v>11.89760566853361</v>
       </c>
       <c r="O24">
-        <v>16.11657643418781</v>
+        <v>11.19759770559537</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.52952813246416</v>
+        <v>21.2841893726431</v>
       </c>
       <c r="C25">
-        <v>9.269525948514623</v>
+        <v>15.02661132567601</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.09432314391372</v>
+        <v>26.66414850075914</v>
       </c>
       <c r="F25">
-        <v>38.26177153149801</v>
+        <v>36.94634779419286</v>
       </c>
       <c r="G25">
-        <v>18.50881565714725</v>
+        <v>17.75093879345035</v>
       </c>
       <c r="H25">
-        <v>11.53402170135608</v>
+        <v>6.766315359089828</v>
       </c>
       <c r="I25">
-        <v>15.61977398548952</v>
+        <v>8.490108931658128</v>
       </c>
       <c r="J25">
-        <v>7.177389201603762</v>
+        <v>3.914354993558593</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.61282750599472</v>
+        <v>11.80538879555229</v>
       </c>
       <c r="O25">
-        <v>16.19156440078801</v>
+        <v>10.84816308180576</v>
       </c>
     </row>
   </sheetData>
